--- a/Population Ablation Study.xlsx
+++ b/Population Ablation Study.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuvraj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yuvraj\Projects\evol-rgap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E421B8-587A-4CF9-94DF-A47740C0A9FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7213F0E4-E8C2-4AB9-8329-188C43C4AF77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19275" windowHeight="7920" xr2:uid="{F04C3125-E05F-49DE-B1EE-B1A9AB900C2D}"/>
   </bookViews>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151DC9AD-55B0-4921-A38B-B4EA51533625}">
   <dimension ref="B4:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,6 +736,27 @@
       <c r="G10">
         <v>50</v>
       </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>-882.46504186839104</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>-13.740390920527201</v>
+      </c>
+      <c r="L10">
+        <v>-891.05458116071702</v>
+      </c>
+      <c r="M10">
+        <v>122.3</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Population Ablation Study.xlsx
+++ b/Population Ablation Study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yuvraj\Projects\evol-rgap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7213F0E4-E8C2-4AB9-8329-188C43C4AF77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18906940-B8FC-4BE1-8770-6F11641F04ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19275" windowHeight="7920" xr2:uid="{F04C3125-E05F-49DE-B1EE-B1A9AB900C2D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>Population</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Maximum Solution</t>
   </si>
   <si>
-    <t>SSIM</t>
-  </si>
-  <si>
     <t>Hinge</t>
   </si>
   <si>
@@ -94,6 +91,135 @@
   </si>
   <si>
     <t>No. of Required Iterations</t>
+  </si>
+  <si>
+    <t>Reconstructed</t>
+  </si>
+  <si>
+    <t>Rescaled</t>
+  </si>
+  <si>
+    <t>SSIM with Objective Value
+(SSIM | MSE)</t>
+  </si>
+  <si>
+    <t>0.98 | 45.60</t>
+  </si>
+  <si>
+    <t>Default SSIM
+(SSIM | MSE)</t>
+  </si>
+  <si>
+    <t>0.98 | 50.43</t>
+  </si>
+  <si>
+    <t>0.98 | 53.01</t>
+  </si>
+  <si>
+    <t>Default is done at [-1,1] Pop 10</t>
+  </si>
+  <si>
+    <t>0.79 | 1947.64</t>
+  </si>
+  <si>
+    <t>0.80 | 1855.27</t>
+  </si>
+  <si>
+    <t>0.78 | 2000.37</t>
+  </si>
+  <si>
+    <t>0.98 | 55.04</t>
+  </si>
+  <si>
+    <t>0.98 | 51.21</t>
+  </si>
+  <si>
+    <t>0.98 | 46.29</t>
+  </si>
+  <si>
+    <t>0.69 | 2849.45</t>
+  </si>
+  <si>
+    <t>0.65 | 3310.42</t>
+  </si>
+  <si>
+    <t>0.65 | 3311.09</t>
+  </si>
+  <si>
+    <t>0.79 | 1898.31</t>
+  </si>
+  <si>
+    <t>0.80 | 1831.94</t>
+  </si>
+  <si>
+    <t>0.98 | 54.11</t>
+  </si>
+  <si>
+    <t>0.98 | 55.90</t>
+  </si>
+  <si>
+    <t>0.98| 45.43</t>
+  </si>
+  <si>
+    <t>0.98 | 45.71</t>
+  </si>
+  <si>
+    <t>0.72 | 2586.22</t>
+  </si>
+  <si>
+    <t>0.76 | 2234.83</t>
+  </si>
+  <si>
+    <t>0.95 | 435.99</t>
+  </si>
+  <si>
+    <t>0.87 | 1182.66</t>
+  </si>
+  <si>
+    <t>0.94 | 530.70</t>
+  </si>
+  <si>
+    <t>0.98 | 51.67</t>
+  </si>
+  <si>
+    <t>0.98 | 46.16</t>
+  </si>
+  <si>
+    <t>0.98 | 53.46</t>
+  </si>
+  <si>
+    <t>0.98 | 45.96</t>
+  </si>
+  <si>
+    <t>0.98 | 45.66</t>
+  </si>
+  <si>
+    <t>0.87 | 1184.60</t>
+  </si>
+  <si>
+    <t>0.88 | 1095.16</t>
+  </si>
+  <si>
+    <t>R-GAP SSIM
+(SSIM | MSE)</t>
+  </si>
+  <si>
+    <t>0.98 | 36.74</t>
+  </si>
+  <si>
+    <t>0.97 | 90.91</t>
+  </si>
+  <si>
+    <t>0.76 | 2220.90</t>
+  </si>
+  <si>
+    <t>0.98 | 63.49</t>
+  </si>
+  <si>
+    <t>0.87 | 1166.79</t>
+  </si>
+  <si>
+    <t>0.97 | 88.56</t>
   </si>
 </sst>
 </file>
@@ -129,9 +255,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,128 +578,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151DC9AD-55B0-4921-A38B-B4EA51533625}">
-  <dimension ref="B4:O10"/>
+  <dimension ref="A3:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="3" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>-0.84319614173504998</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>-0.74455719437370904</v>
-      </c>
-      <c r="L5">
-        <v>-0.97988261967582402</v>
-      </c>
-      <c r="M5">
-        <v>120.5</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -576,39 +737,63 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>-3.5664671259095302</v>
+        <v>-0.84319614173504998</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>-1.0363412203634901</v>
+        <v>-0.74455719437370904</v>
       </c>
       <c r="L6">
-        <v>-4.0518411576907898</v>
+        <v>-0.97988261967582402</v>
       </c>
       <c r="M6">
-        <v>120.9</v>
+        <v>120.5</v>
       </c>
       <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" t="s">
+        <v>40</v>
+      </c>
+      <c r="V6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>3</v>
-      </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>20</v>
@@ -617,112 +802,184 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>-4.7944732478567103</v>
+        <v>-3.5664671259095302</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>-1.4980052474747001</v>
+        <v>-1.0363412203634901</v>
       </c>
       <c r="L7">
-        <v>-9.8046472651045509</v>
+        <v>-4.0518411576907898</v>
       </c>
       <c r="M7">
-        <v>121.8</v>
+        <v>120.9</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>-13.0828651908369</v>
+        <v>-4.7944732478567103</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>-1.0829322584746099</v>
+        <v>-1.4980052474747001</v>
       </c>
       <c r="L8">
-        <v>-44.990665107317596</v>
+        <v>-9.8046472651045509</v>
       </c>
       <c r="M8">
-        <v>121.1</v>
+        <v>121.8</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>-88.246504186839104</v>
+        <v>-13.0828651908369</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>-3.2265576492300299</v>
+        <v>-1.0829322584746099</v>
       </c>
       <c r="L9">
-        <v>-97.321924716792694</v>
+        <v>-44.990665107317596</v>
       </c>
       <c r="M9">
-        <v>121.8</v>
+        <v>121.1</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" t="s">
+        <v>51</v>
+      </c>
+      <c r="U9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V9" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -731,34 +988,144 @@
         <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>-882.46504186839104</v>
+        <v>-88.246504186839104</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
       <c r="K10">
+        <v>-3.2265576492300299</v>
+      </c>
+      <c r="L10">
+        <v>-97.321924716792694</v>
+      </c>
+      <c r="M10">
+        <v>121.8</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" t="s">
+        <v>55</v>
+      </c>
+      <c r="T10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>-882.46504186839104</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>-13.740390920527201</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>-891.05458116071702</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>122.3</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Population Ablation Study.xlsx
+++ b/Population Ablation Study.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yuvraj\Projects\evol-rgap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18906940-B8FC-4BE1-8770-6F11641F04ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570EF5F6-32A1-4566-B7A0-06BD1070442D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19275" windowHeight="7920" xr2:uid="{F04C3125-E05F-49DE-B1EE-B1A9AB900C2D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="103">
   <si>
     <t>Population</t>
   </si>
@@ -220,6 +220,124 @@
   </si>
   <si>
     <t>0.97 | 88.56</t>
+  </si>
+  <si>
+    <t>0.98 | 45.56</t>
+  </si>
+  <si>
+    <t>0.98 | 51.09</t>
+  </si>
+  <si>
+    <t>0.88 | 1120.58</t>
+  </si>
+  <si>
+    <t>0.95 | 479.33</t>
+  </si>
+  <si>
+    <t>0.95 | 403.58</t>
+  </si>
+  <si>
+    <t>0.96 | 336.15</t>
+  </si>
+  <si>
+    <t>0.98 | 56.81</t>
+  </si>
+  <si>
+    <t>0.98 | 59.56</t>
+  </si>
+  <si>
+    <t>0.98 | 45.10</t>
+  </si>
+  <si>
+    <t>0.98 | 47.52</t>
+  </si>
+  <si>
+    <t>0.87 | 1164.31</t>
+  </si>
+  <si>
+    <t>0.92 |729.39</t>
+  </si>
+  <si>
+    <t>SSIM with Minimal Solution
+(SSIM | MSE)</t>
+  </si>
+  <si>
+    <t>0.98 | 46.01</t>
+  </si>
+  <si>
+    <t>0.98 | 47.45</t>
+  </si>
+  <si>
+    <t>0.72 | 2600.56</t>
+  </si>
+  <si>
+    <t>0.78 | 2046.20</t>
+  </si>
+  <si>
+    <t>0.72 | 2601.27</t>
+  </si>
+  <si>
+    <t>0.72 | 2534.39</t>
+  </si>
+  <si>
+    <t>0.98 | 45.00</t>
+  </si>
+  <si>
+    <t>Default is done at [-1,1] Pop 10, MSE</t>
+  </si>
+  <si>
+    <t>0.65 | 3278.41</t>
+  </si>
+  <si>
+    <t>0.69 | 2894.52</t>
+  </si>
+  <si>
+    <t>0.98 | 42.07</t>
+  </si>
+  <si>
+    <t>0.98 | 50.86</t>
+  </si>
+  <si>
+    <t>0.98 | 52.35</t>
+  </si>
+  <si>
+    <t>0.98 | 62.46</t>
+  </si>
+  <si>
+    <t>0.69 | 2828.53</t>
+  </si>
+  <si>
+    <t>0.70 | 2777.61</t>
+  </si>
+  <si>
+    <t>0.65 | 3301.32</t>
+  </si>
+  <si>
+    <t>0.67 | 3056.57</t>
+  </si>
+  <si>
+    <t>0.98 | 44.78</t>
+  </si>
+  <si>
+    <t>0.98 | 45.33</t>
+  </si>
+  <si>
+    <t>0.98 | 46.80</t>
+  </si>
+  <si>
+    <t>0.98 | 46.86</t>
+  </si>
+  <si>
+    <t>0.65 | 3311.23</t>
+  </si>
+  <si>
+    <t>0.68 | 2927.94</t>
+  </si>
+  <si>
+    <t>0.65 | 3310.25</t>
+  </si>
+  <si>
+    <t>0.98 | 45.94</t>
   </si>
 </sst>
 </file>
@@ -243,7 +361,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -251,18 +369,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151DC9AD-55B0-4921-A38B-B4EA51533625}">
-  <dimension ref="A3:V11"/>
+  <dimension ref="A3:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,520 +755,2126 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="2"/>
       <c r="Q3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="R3" s="3"/>
+      <c r="S3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" s="3"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
       <c r="Q4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="R4" s="3"/>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>-0.84319614173504998</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>-0.74455719437370904</v>
+      </c>
+      <c r="L6" s="5">
+        <v>-0.97988261967582402</v>
+      </c>
+      <c r="M6" s="5">
+        <v>120.5</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5">
+        <v>20</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>-3.5664671259095302</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>-1.0363412203634901</v>
+      </c>
+      <c r="L7" s="5">
+        <v>-4.0518411576907898</v>
+      </c>
+      <c r="M7" s="5">
+        <v>120.9</v>
+      </c>
+      <c r="N7" s="5">
+        <v>2</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5">
+        <v>20</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>-4.7944732478567103</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>-1.4980052474747001</v>
+      </c>
+      <c r="L8" s="5">
+        <v>-9.8046472651045509</v>
+      </c>
+      <c r="M8" s="5">
+        <v>121.8</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>50</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="5">
+        <v>30</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>-13.0828651908369</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>-1.0829322584746099</v>
+      </c>
+      <c r="L9" s="5">
+        <v>-44.990665107317596</v>
+      </c>
+      <c r="M9" s="5">
+        <v>121.1</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>100</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="5">
+        <v>40</v>
+      </c>
+      <c r="H10" s="5">
+        <v>4</v>
+      </c>
+      <c r="I10" s="5">
+        <v>-88.246504186839104</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>-3.2265576492300299</v>
+      </c>
+      <c r="L10" s="5">
+        <v>-97.321924716792694</v>
+      </c>
+      <c r="M10" s="5">
+        <v>121.8</v>
+      </c>
+      <c r="N10" s="5">
+        <v>4</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5">
+        <v>100</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="5">
+        <v>50</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>-882.46504186839104</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>-13.740390920527201</v>
+      </c>
+      <c r="L11" s="5">
+        <v>-891.05458116071702</v>
+      </c>
+      <c r="M11" s="5">
+        <v>122.3</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3" t="s">
+      <c r="T15" s="2"/>
+      <c r="U15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5">
+        <v>5</v>
+      </c>
+      <c r="E18" s="5">
+        <v>7</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5">
+        <v>20</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>-0.84319614173504998</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>-0.74455719437370904</v>
+      </c>
+      <c r="L18" s="5">
+        <v>-0.97988261967582402</v>
+      </c>
+      <c r="M18" s="5">
+        <v>121.5</v>
+      </c>
+      <c r="N18" s="5">
+        <v>1</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5">
+        <v>5</v>
+      </c>
+      <c r="E19" s="5">
+        <v>5</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="5">
+        <v>20</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5">
+        <v>-3.5664671259095302</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>-1.0363412203634901</v>
+      </c>
+      <c r="L19" s="5">
+        <v>-4.6802598657141399</v>
+      </c>
+      <c r="M19" s="5">
+        <v>120.8</v>
+      </c>
+      <c r="N19" s="5">
+        <v>2</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5">
+        <v>5</v>
+      </c>
+      <c r="E20" s="5">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="5">
+        <v>20</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>-4.7944732478567103</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>-1.4980052474747001</v>
+      </c>
+      <c r="L20" s="5">
+        <v>-9.8046472651045509</v>
+      </c>
+      <c r="M20" s="5">
+        <v>120.4</v>
+      </c>
+      <c r="N20" s="5">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5</v>
+      </c>
+      <c r="E21" s="5">
+        <v>50</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="5">
+        <v>30</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
+        <v>-13.0828651908369</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>-1.0829322584746099</v>
+      </c>
+      <c r="L21" s="5">
+        <v>-44.990665107317596</v>
+      </c>
+      <c r="M21" s="5">
+        <v>121.1</v>
+      </c>
+      <c r="N21" s="5">
+        <v>1</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="5">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5</v>
+      </c>
+      <c r="E22" s="5">
+        <v>100</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="5">
+        <v>40</v>
+      </c>
+      <c r="H22" s="5">
+        <v>4</v>
+      </c>
+      <c r="I22" s="5">
+        <v>-88.246504186839104</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>-3.2265576492300299</v>
+      </c>
+      <c r="L22" s="5">
+        <v>-97.321924716792694</v>
+      </c>
+      <c r="M22" s="5">
+        <v>121.8</v>
+      </c>
+      <c r="N22" s="5">
+        <v>4</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="5">
+        <v>5</v>
+      </c>
+      <c r="E23" s="5">
+        <v>100</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="5">
+        <v>50</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5">
+        <v>-882.46504186839104</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>-30.110027755269599</v>
+      </c>
+      <c r="L23" s="5">
+        <v>-908.32577676624805</v>
+      </c>
+      <c r="M23" s="5">
+        <v>121.9</v>
+      </c>
+      <c r="N23" s="5">
+        <v>2</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R26" s="3"/>
+      <c r="S26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="2" t="s">
+      <c r="T26" s="2"/>
+      <c r="U26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="2:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" s="3"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V28" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="5">
+        <v>5</v>
+      </c>
+      <c r="E29" s="5">
+        <v>7</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5">
+        <v>20</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5">
+        <v>-0.84319614173504998</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5">
+        <v>-0.74455719437370904</v>
+      </c>
+      <c r="L29" s="5">
+        <v>-0.97988261967582402</v>
+      </c>
+      <c r="M29" s="5">
+        <v>120.9</v>
+      </c>
+      <c r="N29" s="5">
+        <v>1</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="V29" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="5">
+        <v>2</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="5">
+        <v>5</v>
+      </c>
+      <c r="E30" s="5">
+        <v>5</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="5">
+        <v>20</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5">
+        <v>-3.5664671259095302</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <v>-0.99966387367419796</v>
+      </c>
+      <c r="L30" s="5">
+        <v>-4.6802598657141399</v>
+      </c>
+      <c r="M30" s="5">
+        <v>121.1</v>
+      </c>
+      <c r="N30" s="5">
+        <v>2</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="5">
+        <v>5</v>
+      </c>
+      <c r="E31" s="5">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="5">
+        <v>20</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5">
+        <v>-4.7944732478567103</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>-1.7523600343011101</v>
+      </c>
+      <c r="L31" s="5">
+        <v>-9.8046472651045509</v>
+      </c>
+      <c r="M31" s="5">
+        <v>121.4</v>
+      </c>
+      <c r="N31" s="5">
+        <v>1</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <v>4</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="5">
+        <v>5</v>
+      </c>
+      <c r="E32" s="5">
+        <v>50</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="5">
+        <v>30</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5">
+        <v>-13.0828651908369</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
+        <v>-1.0829322584746099</v>
+      </c>
+      <c r="L32" s="5">
+        <v>-48.533339916603602</v>
+      </c>
+      <c r="M32" s="5">
+        <v>122.1</v>
+      </c>
+      <c r="N32" s="5">
+        <v>1</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="5">
+        <v>5</v>
+      </c>
+      <c r="E33" s="5">
+        <v>100</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="5">
+        <v>40</v>
+      </c>
+      <c r="H33" s="5">
+        <v>4</v>
+      </c>
+      <c r="I33" s="5">
+        <v>-88.246504186839104</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5">
+        <v>-3.2265576492300299</v>
+      </c>
+      <c r="L33" s="5">
+        <v>-97.321924716792694</v>
+      </c>
+      <c r="M33" s="5">
+        <v>120.1</v>
+      </c>
+      <c r="N33" s="5">
+        <v>3</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B34" s="5">
+        <v>6</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="5">
+        <v>5</v>
+      </c>
+      <c r="E34" s="5">
+        <v>100</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="5">
+        <v>50</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5">
+        <v>-882.46504186839104</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5">
+        <v>-13.740390920527201</v>
+      </c>
+      <c r="L34" s="5">
+        <v>-891.05458116071702</v>
+      </c>
+      <c r="M34" s="5">
+        <v>122.3</v>
+      </c>
+      <c r="N34" s="5">
+        <v>1</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R38" s="3"/>
+      <c r="S38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="2:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R39" s="3"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
+      <c r="D41" s="5">
+        <v>5</v>
+      </c>
+      <c r="E41" s="5">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F41" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G6">
+      <c r="G41" s="5">
         <v>20</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
+      <c r="H41" s="5">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5">
         <v>-0.84319614173504998</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J41" s="6">
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="K41" s="5">
         <v>-0.74455719437370904</v>
       </c>
-      <c r="L6">
+      <c r="L41" s="5">
         <v>-0.97988261967582402</v>
       </c>
-      <c r="M6">
+      <c r="M41" s="5">
         <v>120.5</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="N41" s="5">
+        <v>1</v>
+      </c>
+      <c r="O41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P41" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q41" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R41" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U41" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V41" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B42" s="5">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D42" s="5">
+        <v>5</v>
+      </c>
+      <c r="E42" s="5">
+        <v>5</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G7">
+      <c r="G42" s="5">
         <v>20</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
+      <c r="H42" s="5">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5">
         <v>-3.5664671259095302</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J42" s="6">
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="K42" s="5">
         <v>-1.0363412203634901</v>
       </c>
-      <c r="L7">
+      <c r="L42" s="5">
         <v>-4.0518411576907898</v>
       </c>
-      <c r="M7">
+      <c r="M42" s="5">
         <v>120.9</v>
       </c>
-      <c r="N7">
+      <c r="N42" s="5">
         <v>2</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O42" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P42" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q42" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R42" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S42" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T42" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U42" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V42" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B43" s="5">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C43" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
+      <c r="D43" s="5">
+        <v>5</v>
+      </c>
+      <c r="E43" s="5">
         <v>10</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F43" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G8">
+      <c r="G43" s="5">
         <v>20</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5">
         <v>-4.7944732478567103</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J43" s="6">
         <v>0</v>
       </c>
-      <c r="K8">
+      <c r="K43" s="5">
         <v>-1.4980052474747001</v>
       </c>
-      <c r="L8">
+      <c r="L43" s="5">
         <v>-9.8046472651045509</v>
       </c>
-      <c r="M8">
+      <c r="M43" s="5">
         <v>121.8</v>
       </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="N43" s="5">
+        <v>1</v>
+      </c>
+      <c r="O43" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P43" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q43" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R43" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S43" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U43" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V43" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B44" s="5">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
+      <c r="C44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="5">
+        <v>5</v>
+      </c>
+      <c r="E44" s="5">
         <v>50</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F44" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G9">
+      <c r="G44" s="5">
         <v>30</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5">
         <v>-13.0828651908369</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J44" s="6">
         <v>0</v>
       </c>
-      <c r="K9">
+      <c r="K44" s="5">
         <v>-1.0829322584746099</v>
       </c>
-      <c r="L9">
-        <v>-44.990665107317596</v>
-      </c>
-      <c r="M9">
-        <v>121.1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>47</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="L44" s="5">
+        <v>-48.533339916603602</v>
+      </c>
+      <c r="M44" s="5">
+        <v>119.9</v>
+      </c>
+      <c r="N44" s="5">
+        <v>1</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="V44" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B45" s="5">
+        <v>5</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="5">
+        <v>5</v>
+      </c>
+      <c r="E45" s="5">
+        <v>100</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="5">
+        <v>40</v>
+      </c>
+      <c r="H45" s="5">
+        <v>4</v>
+      </c>
+      <c r="I45" s="5">
+        <v>-88.246504186839104</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0</v>
+      </c>
+      <c r="K45" s="5">
+        <v>-3.2265576492300299</v>
+      </c>
+      <c r="L45" s="5">
+        <v>-97.321924716792694</v>
+      </c>
+      <c r="M45" s="5">
+        <v>121.9</v>
+      </c>
+      <c r="N45" s="5">
+        <v>4</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="V45" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B46" s="5">
+        <v>6</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="5">
+        <v>5</v>
+      </c>
+      <c r="E46" s="5">
+        <v>100</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="5">
         <v>50</v>
       </c>
-      <c r="S9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T9" t="s">
-        <v>51</v>
-      </c>
-      <c r="U9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10">
-        <v>40</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>-88.246504186839104</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="H46" s="5">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5">
+        <v>-882.46504186839104</v>
+      </c>
+      <c r="J46" s="6">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>-3.2265576492300299</v>
-      </c>
-      <c r="L10">
-        <v>-97.321924716792694</v>
-      </c>
-      <c r="M10">
-        <v>121.8</v>
-      </c>
-      <c r="N10">
-        <v>4</v>
-      </c>
-      <c r="O10" t="s">
-        <v>58</v>
-      </c>
-      <c r="P10" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>47</v>
-      </c>
-      <c r="R10" t="s">
-        <v>50</v>
-      </c>
-      <c r="S10" t="s">
-        <v>55</v>
-      </c>
-      <c r="T10" t="s">
-        <v>53</v>
-      </c>
-      <c r="U10" t="s">
-        <v>56</v>
-      </c>
-      <c r="V10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11">
-        <v>50</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>-882.46504186839104</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>-13.740390920527201</v>
-      </c>
-      <c r="L11">
-        <v>-891.05458116071702</v>
-      </c>
-      <c r="M11">
-        <v>122.3</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11" t="s">
-        <v>60</v>
-      </c>
-      <c r="P11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" t="s">
-        <v>34</v>
-      </c>
-      <c r="S11" t="s">
-        <v>37</v>
-      </c>
-      <c r="T11" t="s">
-        <v>25</v>
-      </c>
-      <c r="U11" t="s">
-        <v>38</v>
-      </c>
-      <c r="V11" t="s">
-        <v>35</v>
+      <c r="K46" s="5">
+        <v>-30.110027755269599</v>
+      </c>
+      <c r="L46" s="5">
+        <v>-975.36455260875096</v>
+      </c>
+      <c r="M46" s="5">
+        <v>122.1</v>
+      </c>
+      <c r="N46" s="5">
+        <v>2</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="V46" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="U4:V4"/>
+  <mergeCells count="73">
+    <mergeCell ref="U38:V39"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="N38:N40"/>
+    <mergeCell ref="O38:P39"/>
+    <mergeCell ref="S38:T39"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="M26:M28"/>
+    <mergeCell ref="N26:N28"/>
+    <mergeCell ref="O26:P27"/>
+    <mergeCell ref="S26:T27"/>
+    <mergeCell ref="U26:V27"/>
+    <mergeCell ref="U15:V16"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="O15:P16"/>
+    <mergeCell ref="S15:T16"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="O3:P4"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="S3:T4"/>
+    <mergeCell ref="U3:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Population Ablation Study.xlsx
+++ b/Population Ablation Study.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yuvraj\Projects\evol-rgap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yuvi Code\Python\evol-rgap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570EF5F6-32A1-4566-B7A0-06BD1070442D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D1BD0E-A54C-41A6-BF58-C657DD691F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19275" windowHeight="7920" xr2:uid="{F04C3125-E05F-49DE-B1EE-B1A9AB900C2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F04C3125-E05F-49DE-B1EE-B1A9AB900C2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="174">
   <si>
     <t>Population</t>
   </si>
@@ -338,6 +339,220 @@
   </si>
   <si>
     <t>0.98 | 45.94</t>
+  </si>
+  <si>
+    <t>S.No.</t>
+  </si>
+  <si>
+    <t>Objective Value</t>
+  </si>
+  <si>
+    <t>SSIM (SSIM | MSE)</t>
+  </si>
+  <si>
+    <t>Population - 10, Bounds - [-1,1], Min Iterations - 100</t>
+  </si>
+  <si>
+    <t>Population - 20, Bounds - [-5,5], Min Iterations - 100</t>
+  </si>
+  <si>
+    <t>Population - 50, Bounds - [-10,10], Min Iterations - 100</t>
+  </si>
+  <si>
+    <t>Population - 100, Bounds - [-50,50], Min Iterations - 100</t>
+  </si>
+  <si>
+    <t>Population - 100, Bounds - [-100,100], Min Iterations - 100</t>
+  </si>
+  <si>
+    <t>R-GAP Benchmarks</t>
+  </si>
+  <si>
+    <t>Average Time
+(sec)</t>
+  </si>
+  <si>
+    <t>Runtime Warning</t>
+  </si>
+  <si>
+    <t>0.98 | 46.48</t>
+  </si>
+  <si>
+    <t>0.98 | 36.03</t>
+  </si>
+  <si>
+    <t>0.76 | 2220.48</t>
+  </si>
+  <si>
+    <t>0.98 | 41.05</t>
+  </si>
+  <si>
+    <t>0.88 | 1171.75</t>
+  </si>
+  <si>
+    <t>0.98 | 28.67</t>
+  </si>
+  <si>
+    <t>0.98 | 50.95</t>
+  </si>
+  <si>
+    <t>0.98 | 50.79</t>
+  </si>
+  <si>
+    <t>0.76 | 2223.28</t>
+  </si>
+  <si>
+    <t>0.98 | 44.26</t>
+  </si>
+  <si>
+    <t>0.88 | 1155.87</t>
+  </si>
+  <si>
+    <t>0.98 | 38.70</t>
+  </si>
+  <si>
+    <t>0.68 | 2457.96</t>
+  </si>
+  <si>
+    <t>0.067 | 2782.25</t>
+  </si>
+  <si>
+    <t>0.76 | 2215.11</t>
+  </si>
+  <si>
+    <t>0.98 | 38.52</t>
+  </si>
+  <si>
+    <t>0.88 | 1155.70</t>
+  </si>
+  <si>
+    <t>0.98 | 28.32</t>
+  </si>
+  <si>
+    <t>0.55 | 4493.90</t>
+  </si>
+  <si>
+    <t>0.67 | 3043.41</t>
+  </si>
+  <si>
+    <t>0.56 | 4458.21</t>
+  </si>
+  <si>
+    <t>0.67 | 3363.50</t>
+  </si>
+  <si>
+    <t>0.55 | 4470.75</t>
+  </si>
+  <si>
+    <t>0.66 | 3515.86</t>
+  </si>
+  <si>
+    <t>0.55 | 4498.07</t>
+  </si>
+  <si>
+    <t>0.70 | 1677.50</t>
+  </si>
+  <si>
+    <t>0.67 | 2509.03</t>
+  </si>
+  <si>
+    <t>0.67 | 2995.14</t>
+  </si>
+  <si>
+    <t>0.68 | 2263.23</t>
+  </si>
+  <si>
+    <t>0.67 | 2941.20</t>
+  </si>
+  <si>
+    <t>0.98 | 42.45</t>
+  </si>
+  <si>
+    <t>0.98 | 44.80</t>
+  </si>
+  <si>
+    <t>0.76 | 2214.66</t>
+  </si>
+  <si>
+    <t>0.98 | 50.83</t>
+  </si>
+  <si>
+    <t>0.88 | 1164.65</t>
+  </si>
+  <si>
+    <t>0.98 | 31.59</t>
+  </si>
+  <si>
+    <t>Population - 100, Bounds - [-5,5], Min Iterations - 100</t>
+  </si>
+  <si>
+    <t>0.97 | 63.14</t>
+  </si>
+  <si>
+    <t>0.98 | 50.24</t>
+  </si>
+  <si>
+    <t>0.76 | 2216.88</t>
+  </si>
+  <si>
+    <t>0.98 | 50.28</t>
+  </si>
+  <si>
+    <t>0.88 | 1164.25</t>
+  </si>
+  <si>
+    <t>0.98 | 38.08</t>
+  </si>
+  <si>
+    <t>Population - 50, Bounds - [-5,5], Min Iterations - 100 - Not upto makrs</t>
+  </si>
+  <si>
+    <t>Population - 50, Bounds - [-7,7], Min Iterations - 100</t>
+  </si>
+  <si>
+    <t>0.98 | 37.55</t>
+  </si>
+  <si>
+    <t>0.88 | 1509.39</t>
+  </si>
+  <si>
+    <t>0.98 | 66.45</t>
+  </si>
+  <si>
+    <t>0.87 | 1803.32</t>
+  </si>
+  <si>
+    <t>0.96 | 222.75</t>
+  </si>
+  <si>
+    <t>0.89 | 1073.95</t>
+  </si>
+  <si>
+    <t>0.97 | 113.26</t>
+  </si>
+  <si>
+    <t>Population - 10, Bounds - [-5,5], Min Iterations - 100</t>
+  </si>
+  <si>
+    <t>0.97 | 111.46</t>
+  </si>
+  <si>
+    <t>0.89 | 1074.44</t>
+  </si>
+  <si>
+    <t>0.87 | 1807.79</t>
+  </si>
+  <si>
+    <t>0.97 | 181.75</t>
+  </si>
+  <si>
+    <t>-0.00023215871575943403,</t>
+  </si>
+  <si>
+    <t>0.88 | 1510.36</t>
+  </si>
+  <si>
+    <t>0.98 | 65.87</t>
   </si>
 </sst>
 </file>
@@ -353,15 +568,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -384,14 +605,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -399,13 +720,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -724,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151DC9AD-55B0-4921-A38B-B4EA51533625}">
   <dimension ref="A3:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T21" sqref="F19:T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,2074 +1136,2089 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="3" t="s">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="2" t="s">
+      <c r="R3" s="5"/>
+      <c r="S3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2" t="s">
+      <c r="T3" s="4"/>
+      <c r="U3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V3" s="2"/>
+      <c r="V3" s="4"/>
     </row>
     <row r="4" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="3" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="4" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
         <v>7</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <v>20</v>
       </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
         <v>-0.84319614173504998</v>
       </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
         <v>-0.74455719437370904</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="2">
         <v>-0.97988261967582402</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="2">
         <v>120.5</v>
       </c>
-      <c r="N6" s="5">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5" t="s">
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="V6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5">
-        <v>5</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <v>20</v>
       </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
         <v>-3.5664671259095302</v>
       </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
         <v>-1.0363412203634901</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="2">
         <v>-4.0518411576907898</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="2">
         <v>120.9</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="2">
         <v>2</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V7" s="5" t="s">
+      <c r="V7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
+      <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <v>20</v>
       </c>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
         <v>-4.7944732478567103</v>
       </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
         <v>-1.4980052474747001</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="2">
         <v>-9.8046472651045509</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="2">
         <v>121.8</v>
       </c>
-      <c r="N8" s="5">
-        <v>1</v>
-      </c>
-      <c r="O8" s="5" t="s">
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="T8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="U8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="V8" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5">
-        <v>5</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
         <v>50</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <v>30</v>
       </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
         <v>-13.0828651908369</v>
       </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
         <v>-1.0829322584746099</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="2">
         <v>-44.990665107317596</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="2">
         <v>121.1</v>
       </c>
-      <c r="N9" s="5">
-        <v>1</v>
-      </c>
-      <c r="O9" s="5" t="s">
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="T9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U9" s="5" t="s">
+      <c r="U9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="5" t="s">
+      <c r="V9" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
         <v>100</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="2">
         <v>40</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="2">
         <v>4</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <v>-88.246504186839104</v>
       </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
         <v>-3.2265576492300299</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="2">
         <v>-97.321924716792694</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="2">
         <v>121.8</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="2">
         <v>4</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="T10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="U10" s="5" t="s">
+      <c r="U10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="V10" s="5" t="s">
+      <c r="V10" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
+      <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="5">
-        <v>5</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
         <v>100</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="2">
         <v>50</v>
       </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
         <v>-882.46504186839104</v>
       </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
         <v>-13.740390920527201</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="2">
         <v>-891.05458116071702</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="2">
         <v>122.3</v>
       </c>
-      <c r="N11" s="5">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5" t="s">
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="T11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="U11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="V11" s="5" t="s">
+      <c r="V11" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="E15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="3" t="s">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="2" t="s">
+      <c r="R15" s="5"/>
+      <c r="S15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2" t="s">
+      <c r="T15" s="4"/>
+      <c r="U15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V15" s="2"/>
+      <c r="V15" s="4"/>
     </row>
     <row r="16" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="3" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R16" s="3"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
     </row>
     <row r="17" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="4" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="R17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="S17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="T17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="U17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V17" s="4" t="s">
+      <c r="V17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="5">
-        <v>5</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="D18" s="2">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
         <v>7</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="2">
         <v>20</v>
       </c>
-      <c r="H18" s="5">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5">
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
         <v>-0.84319614173504998</v>
       </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
         <v>-0.74455719437370904</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="2">
         <v>-0.97988261967582402</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="2">
         <v>121.5</v>
       </c>
-      <c r="N18" s="5">
-        <v>1</v>
-      </c>
-      <c r="O18" s="5" t="s">
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="Q18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="S18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="T18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="U18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="V18" s="5" t="s">
+      <c r="V18" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
+      <c r="B19" s="2">
         <v>2</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="5">
-        <v>5</v>
-      </c>
-      <c r="E19" s="5">
-        <v>5</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="2">
         <v>20</v>
       </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-      <c r="I19" s="5">
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
         <v>-3.5664671259095302</v>
       </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
         <v>-1.0363412203634901</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="2">
         <v>-4.6802598657141399</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="2">
         <v>120.8</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="2">
         <v>2</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="O19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="P19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="Q19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="R19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="S19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="T19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="U19" s="5" t="s">
+      <c r="U19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V19" s="5" t="s">
+      <c r="V19" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
+      <c r="B20" s="2">
         <v>3</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="5">
-        <v>5</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
         <v>10</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="2">
         <v>20</v>
       </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-      <c r="I20" s="5">
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
         <v>-4.7944732478567103</v>
       </c>
-      <c r="J20" s="6">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
         <v>-1.4980052474747001</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="2">
         <v>-9.8046472651045509</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="2">
         <v>120.4</v>
       </c>
-      <c r="N20" s="5">
-        <v>1</v>
-      </c>
-      <c r="O20" s="5" t="s">
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="Q20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="R20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="S20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T20" s="5" t="s">
+      <c r="T20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U20" s="5" t="s">
+      <c r="U20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="V20" s="5" t="s">
+      <c r="V20" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
+      <c r="B21" s="2">
         <v>4</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="5">
-        <v>5</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
         <v>50</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="2">
         <v>30</v>
       </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5">
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
         <v>-13.0828651908369</v>
       </c>
-      <c r="J21" s="6">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5">
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
         <v>-1.0829322584746099</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="2">
         <v>-44.990665107317596</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="2">
         <v>121.1</v>
       </c>
-      <c r="N21" s="5">
-        <v>1</v>
-      </c>
-      <c r="O21" s="5" t="s">
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="Q21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="R21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="S21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="T21" s="5" t="s">
+      <c r="T21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U21" s="5" t="s">
+      <c r="U21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="V21" s="5" t="s">
+      <c r="V21" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="5">
-        <v>5</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="5">
-        <v>5</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
         <v>100</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="2">
         <v>40</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="2">
         <v>4</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="2">
         <v>-88.246504186839104</v>
       </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
         <v>-3.2265576492300299</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="2">
         <v>-97.321924716792694</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="2">
         <v>121.8</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="2">
         <v>4</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="Q22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="R22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S22" s="5" t="s">
+      <c r="S22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="T22" s="5" t="s">
+      <c r="T22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="U22" s="5" t="s">
+      <c r="U22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="V22" s="5" t="s">
+      <c r="V22" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="5">
+      <c r="B23" s="2">
         <v>6</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="5">
-        <v>5</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2">
         <v>100</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="2">
         <v>50</v>
       </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-      <c r="I23" s="5">
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
         <v>-882.46504186839104</v>
       </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-      <c r="K23" s="5">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
         <v>-30.110027755269599</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="2">
         <v>-908.32577676624805</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="2">
         <v>121.9</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="2">
         <v>2</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="P23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q23" s="5" t="s">
+      <c r="Q23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R23" s="5" t="s">
+      <c r="R23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="S23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="T23" s="5" t="s">
+      <c r="T23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="U23" s="5" t="s">
+      <c r="U23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V23" s="5" t="s">
+      <c r="V23" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="E26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="N26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="3" t="s">
+      <c r="P26" s="4"/>
+      <c r="Q26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="R26" s="3"/>
-      <c r="S26" s="2" t="s">
+      <c r="R26" s="5"/>
+      <c r="S26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2" t="s">
+      <c r="T26" s="4"/>
+      <c r="U26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V26" s="2"/>
+      <c r="V26" s="4"/>
     </row>
     <row r="27" spans="2:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="3" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R27" s="3"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
     </row>
     <row r="28" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="4" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="P28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="Q28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R28" s="4" t="s">
+      <c r="R28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S28" s="4" t="s">
+      <c r="S28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T28" s="4" t="s">
+      <c r="T28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="4" t="s">
+      <c r="U28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V28" s="4" t="s">
+      <c r="V28" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="5">
-        <v>1</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="5">
-        <v>5</v>
-      </c>
-      <c r="E29" s="5">
+      <c r="D29" s="2">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2">
         <v>7</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="2">
         <v>20</v>
       </c>
-      <c r="H29" s="5">
-        <v>1</v>
-      </c>
-      <c r="I29" s="5">
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
         <v>-0.84319614173504998</v>
       </c>
-      <c r="J29" s="6">
-        <v>0</v>
-      </c>
-      <c r="K29" s="5">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
         <v>-0.74455719437370904</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="2">
         <v>-0.97988261967582402</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="2">
         <v>120.9</v>
       </c>
-      <c r="N29" s="5">
-        <v>1</v>
-      </c>
-      <c r="O29" s="5" t="s">
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P29" s="5" t="s">
+      <c r="P29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q29" s="5" t="s">
+      <c r="Q29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R29" s="5" t="s">
+      <c r="R29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S29" s="5" t="s">
+      <c r="S29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="T29" s="5" t="s">
+      <c r="T29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="U29" s="5" t="s">
+      <c r="U29" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V29" s="5" t="s">
+      <c r="V29" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="5">
+      <c r="B30" s="2">
         <v>2</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="5">
-        <v>5</v>
-      </c>
-      <c r="E30" s="5">
-        <v>5</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="D30" s="2">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="2">
         <v>20</v>
       </c>
-      <c r="H30" s="5">
-        <v>1</v>
-      </c>
-      <c r="I30" s="5">
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
         <v>-3.5664671259095302</v>
       </c>
-      <c r="J30" s="6">
-        <v>0</v>
-      </c>
-      <c r="K30" s="5">
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
         <v>-0.99966387367419796</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="2">
         <v>-4.6802598657141399</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="2">
         <v>121.1</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30" s="2">
         <v>2</v>
       </c>
-      <c r="O30" s="5" t="s">
+      <c r="O30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P30" s="5" t="s">
+      <c r="P30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q30" s="5" t="s">
+      <c r="Q30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R30" s="5" t="s">
+      <c r="R30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S30" s="5" t="s">
+      <c r="S30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="T30" s="5" t="s">
+      <c r="T30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="U30" s="5" t="s">
+      <c r="U30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="V30" s="5" t="s">
+      <c r="V30" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" s="5">
+      <c r="B31" s="2">
         <v>3</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="5">
-        <v>5</v>
-      </c>
-      <c r="E31" s="5">
+      <c r="D31" s="2">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2">
         <v>10</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="2">
         <v>20</v>
       </c>
-      <c r="H31" s="5">
-        <v>1</v>
-      </c>
-      <c r="I31" s="5">
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
         <v>-4.7944732478567103</v>
       </c>
-      <c r="J31" s="6">
-        <v>0</v>
-      </c>
-      <c r="K31" s="5">
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
         <v>-1.7523600343011101</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="2">
         <v>-9.8046472651045509</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="2">
         <v>121.4</v>
       </c>
-      <c r="N31" s="5">
-        <v>1</v>
-      </c>
-      <c r="O31" s="5" t="s">
+      <c r="N31" s="2">
+        <v>1</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P31" s="5" t="s">
+      <c r="P31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q31" s="5" t="s">
+      <c r="Q31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R31" s="5" t="s">
+      <c r="R31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S31" s="5" t="s">
+      <c r="S31" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="T31" s="5" t="s">
+      <c r="T31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="U31" s="5" t="s">
+      <c r="U31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="V31" s="5" t="s">
+      <c r="V31" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="5">
+      <c r="B32" s="2">
         <v>4</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="5">
-        <v>5</v>
-      </c>
-      <c r="E32" s="5">
+      <c r="D32" s="2">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2">
         <v>50</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="2">
         <v>30</v>
       </c>
-      <c r="H32" s="5">
-        <v>1</v>
-      </c>
-      <c r="I32" s="5">
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
         <v>-13.0828651908369</v>
       </c>
-      <c r="J32" s="6">
-        <v>0</v>
-      </c>
-      <c r="K32" s="5">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
         <v>-1.0829322584746099</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="2">
         <v>-48.533339916603602</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="2">
         <v>122.1</v>
       </c>
-      <c r="N32" s="5">
-        <v>1</v>
-      </c>
-      <c r="O32" s="5" t="s">
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P32" s="5" t="s">
+      <c r="P32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q32" s="5" t="s">
+      <c r="Q32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R32" s="5" t="s">
+      <c r="R32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S32" s="5" t="s">
+      <c r="S32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="T32" s="5" t="s">
+      <c r="T32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="U32" s="5" t="s">
+      <c r="U32" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="V32" s="5" t="s">
+      <c r="V32" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="5">
-        <v>5</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="B33" s="2">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="5">
-        <v>5</v>
-      </c>
-      <c r="E33" s="5">
+      <c r="D33" s="2">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2">
         <v>100</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="2">
         <v>40</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="2">
         <v>4</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="2">
         <v>-88.246504186839104</v>
       </c>
-      <c r="J33" s="6">
-        <v>0</v>
-      </c>
-      <c r="K33" s="5">
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
         <v>-3.2265576492300299</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="2">
         <v>-97.321924716792694</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="2">
         <v>120.1</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="2">
         <v>3</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="O33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P33" s="5" t="s">
+      <c r="P33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q33" s="5" t="s">
+      <c r="Q33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R33" s="5" t="s">
+      <c r="R33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S33" s="5" t="s">
+      <c r="S33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="T33" s="5" t="s">
+      <c r="T33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U33" s="5" t="s">
+      <c r="U33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="V33" s="5" t="s">
+      <c r="V33" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="5">
+      <c r="B34" s="2">
         <v>6</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="5">
-        <v>5</v>
-      </c>
-      <c r="E34" s="5">
+      <c r="D34" s="2">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2">
         <v>100</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="2">
         <v>50</v>
       </c>
-      <c r="H34" s="5">
-        <v>1</v>
-      </c>
-      <c r="I34" s="5">
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
         <v>-882.46504186839104</v>
       </c>
-      <c r="J34" s="6">
-        <v>0</v>
-      </c>
-      <c r="K34" s="5">
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
         <v>-13.740390920527201</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="2">
         <v>-891.05458116071702</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="2">
         <v>122.3</v>
       </c>
-      <c r="N34" s="5">
-        <v>1</v>
-      </c>
-      <c r="O34" s="5" t="s">
+      <c r="N34" s="2">
+        <v>1</v>
+      </c>
+      <c r="O34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P34" s="5" t="s">
+      <c r="P34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q34" s="5" t="s">
+      <c r="Q34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R34" s="5" t="s">
+      <c r="R34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S34" s="5" t="s">
+      <c r="S34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="T34" s="5" t="s">
+      <c r="T34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U34" s="5" t="s">
+      <c r="U34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="V34" s="5" t="s">
+      <c r="V34" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="C38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2" t="s">
+      <c r="E38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="N38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="O38" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="3" t="s">
+      <c r="P38" s="4"/>
+      <c r="Q38" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="R38" s="3"/>
-      <c r="S38" s="2" t="s">
+      <c r="R38" s="5"/>
+      <c r="S38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2" t="s">
+      <c r="T38" s="4"/>
+      <c r="U38" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V38" s="2"/>
+      <c r="V38" s="4"/>
     </row>
     <row r="39" spans="2:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="3" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R39" s="3"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="4" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P40" s="4" t="s">
+      <c r="P40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q40" s="4" t="s">
+      <c r="Q40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R40" s="4" t="s">
+      <c r="R40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S40" s="4" t="s">
+      <c r="S40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T40" s="4" t="s">
+      <c r="T40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U40" s="4" t="s">
+      <c r="U40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V40" s="4" t="s">
+      <c r="V40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B41" s="5">
-        <v>1</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="5">
-        <v>5</v>
-      </c>
-      <c r="E41" s="5">
+      <c r="D41" s="2">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2">
         <v>7</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="2">
         <v>20</v>
       </c>
-      <c r="H41" s="5">
-        <v>1</v>
-      </c>
-      <c r="I41" s="5">
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
         <v>-0.84319614173504998</v>
       </c>
-      <c r="J41" s="6">
-        <v>0</v>
-      </c>
-      <c r="K41" s="5">
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
         <v>-0.74455719437370904</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="2">
         <v>-0.97988261967582402</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="2">
         <v>120.5</v>
       </c>
-      <c r="N41" s="5">
-        <v>1</v>
-      </c>
-      <c r="O41" s="5" t="s">
+      <c r="N41" s="2">
+        <v>1</v>
+      </c>
+      <c r="O41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P41" s="5" t="s">
+      <c r="P41" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q41" s="5" t="s">
+      <c r="Q41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R41" s="5" t="s">
+      <c r="R41" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S41" s="5" t="s">
+      <c r="S41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="T41" s="5" t="s">
+      <c r="T41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U41" s="5" t="s">
+      <c r="U41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V41" s="5" t="s">
+      <c r="V41" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B42" s="5">
+      <c r="B42" s="2">
         <v>2</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="5">
-        <v>5</v>
-      </c>
-      <c r="E42" s="5">
-        <v>5</v>
-      </c>
-      <c r="F42" s="5" t="s">
+      <c r="D42" s="2">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="2">
         <v>20</v>
       </c>
-      <c r="H42" s="5">
-        <v>1</v>
-      </c>
-      <c r="I42" s="5">
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
         <v>-3.5664671259095302</v>
       </c>
-      <c r="J42" s="6">
-        <v>0</v>
-      </c>
-      <c r="K42" s="5">
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
         <v>-1.0363412203634901</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="2">
         <v>-4.0518411576907898</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="2">
         <v>120.9</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N42" s="2">
         <v>2</v>
       </c>
-      <c r="O42" s="5" t="s">
+      <c r="O42" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P42" s="5" t="s">
+      <c r="P42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q42" s="5" t="s">
+      <c r="Q42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R42" s="5" t="s">
+      <c r="R42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S42" s="5" t="s">
+      <c r="S42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="T42" s="5" t="s">
+      <c r="T42" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U42" s="5" t="s">
+      <c r="U42" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V42" s="5" t="s">
+      <c r="V42" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="5">
+      <c r="B43" s="2">
         <v>3</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="5">
-        <v>5</v>
-      </c>
-      <c r="E43" s="5">
+      <c r="D43" s="2">
+        <v>5</v>
+      </c>
+      <c r="E43" s="2">
         <v>10</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="2">
         <v>20</v>
       </c>
-      <c r="H43" s="5">
-        <v>1</v>
-      </c>
-      <c r="I43" s="5">
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" s="2">
         <v>-4.7944732478567103</v>
       </c>
-      <c r="J43" s="6">
-        <v>0</v>
-      </c>
-      <c r="K43" s="5">
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
         <v>-1.4980052474747001</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="2">
         <v>-9.8046472651045509</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="2">
         <v>121.8</v>
       </c>
-      <c r="N43" s="5">
-        <v>1</v>
-      </c>
-      <c r="O43" s="5" t="s">
+      <c r="N43" s="2">
+        <v>1</v>
+      </c>
+      <c r="O43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P43" s="5" t="s">
+      <c r="P43" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q43" s="5" t="s">
+      <c r="Q43" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R43" s="5" t="s">
+      <c r="R43" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S43" s="5" t="s">
+      <c r="S43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="T43" s="5" t="s">
+      <c r="T43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U43" s="5" t="s">
+      <c r="U43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="V43" s="5" t="s">
+      <c r="V43" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B44" s="5">
+      <c r="B44" s="2">
         <v>4</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="5">
-        <v>5</v>
-      </c>
-      <c r="E44" s="5">
+      <c r="D44" s="2">
+        <v>5</v>
+      </c>
+      <c r="E44" s="2">
         <v>50</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="2">
         <v>30</v>
       </c>
-      <c r="H44" s="5">
-        <v>1</v>
-      </c>
-      <c r="I44" s="5">
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2">
         <v>-13.0828651908369</v>
       </c>
-      <c r="J44" s="6">
-        <v>0</v>
-      </c>
-      <c r="K44" s="5">
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
         <v>-1.0829322584746099</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="2">
         <v>-48.533339916603602</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="2">
         <v>119.9</v>
       </c>
-      <c r="N44" s="5">
-        <v>1</v>
-      </c>
-      <c r="O44" s="5" t="s">
+      <c r="N44" s="2">
+        <v>1</v>
+      </c>
+      <c r="O44" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P44" s="5" t="s">
+      <c r="P44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q44" s="5" t="s">
+      <c r="Q44" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R44" s="5" t="s">
+      <c r="R44" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S44" s="5" t="s">
+      <c r="S44" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="T44" s="5" t="s">
+      <c r="T44" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="U44" s="5" t="s">
+      <c r="U44" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="V44" s="5" t="s">
+      <c r="V44" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B45" s="5">
-        <v>5</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="B45" s="2">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="5">
-        <v>5</v>
-      </c>
-      <c r="E45" s="5">
+      <c r="D45" s="2">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2">
         <v>100</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="2">
         <v>40</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="2">
         <v>4</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="2">
         <v>-88.246504186839104</v>
       </c>
-      <c r="J45" s="6">
-        <v>0</v>
-      </c>
-      <c r="K45" s="5">
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
         <v>-3.2265576492300299</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="2">
         <v>-97.321924716792694</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="2">
         <v>121.9</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45" s="2">
         <v>4</v>
       </c>
-      <c r="O45" s="5" t="s">
+      <c r="O45" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P45" s="5" t="s">
+      <c r="P45" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q45" s="5" t="s">
+      <c r="Q45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R45" s="5" t="s">
+      <c r="R45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S45" s="5" t="s">
+      <c r="S45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="T45" s="5" t="s">
+      <c r="T45" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="U45" s="5" t="s">
+      <c r="U45" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="V45" s="5" t="s">
+      <c r="V45" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B46" s="5">
+      <c r="B46" s="2">
         <v>6</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="5">
-        <v>5</v>
-      </c>
-      <c r="E46" s="5">
+      <c r="D46" s="2">
+        <v>5</v>
+      </c>
+      <c r="E46" s="2">
         <v>100</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="2">
         <v>50</v>
       </c>
-      <c r="H46" s="5">
-        <v>1</v>
-      </c>
-      <c r="I46" s="5">
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
         <v>-882.46504186839104</v>
       </c>
-      <c r="J46" s="6">
-        <v>0</v>
-      </c>
-      <c r="K46" s="5">
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
         <v>-30.110027755269599</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="2">
         <v>-975.36455260875096</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="2">
         <v>122.1</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N46" s="2">
         <v>2</v>
       </c>
-      <c r="O46" s="5" t="s">
+      <c r="O46" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P46" s="5" t="s">
+      <c r="P46" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q46" s="5" t="s">
+      <c r="Q46" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R46" s="5" t="s">
+      <c r="R46" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S46" s="5" t="s">
+      <c r="S46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="T46" s="5" t="s">
+      <c r="T46" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="U46" s="5" t="s">
+      <c r="U46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="V46" s="5" t="s">
+      <c r="V46" s="2" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="U38:V39"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="N38:N40"/>
-    <mergeCell ref="O38:P39"/>
-    <mergeCell ref="S38:T39"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="M26:M28"/>
-    <mergeCell ref="N26:N28"/>
-    <mergeCell ref="O26:P27"/>
-    <mergeCell ref="S26:T27"/>
-    <mergeCell ref="U26:V27"/>
+    <mergeCell ref="U3:V4"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T4"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="O3:P4"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
     <mergeCell ref="U15:V16"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="D15:D17"/>
@@ -2838,44 +3234,1462 @@
     <mergeCell ref="S15:T16"/>
     <mergeCell ref="L15:L17"/>
     <mergeCell ref="G15:G17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="O3:P4"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
     <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T4"/>
-    <mergeCell ref="U3:V4"/>
+    <mergeCell ref="M26:M28"/>
+    <mergeCell ref="N26:N28"/>
+    <mergeCell ref="O26:P27"/>
+    <mergeCell ref="S26:T27"/>
+    <mergeCell ref="U26:V27"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="U38:V39"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="N38:N40"/>
+    <mergeCell ref="O38:P39"/>
+    <mergeCell ref="S38:T39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05386383-7D5E-48DB-BEBE-6EE7B07159D5}">
+  <dimension ref="B2:U65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="P2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="M4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="12">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12">
+        <v>214.9</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="M6" s="12">
+        <v>1</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="13">
+        <v>387</v>
+      </c>
+      <c r="P6" s="12">
+        <v>214.9</v>
+      </c>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="13">
+        <v>5</v>
+      </c>
+      <c r="E7" s="13">
+        <v>212</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M7" s="13">
+        <v>2</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="13">
+        <v>52</v>
+      </c>
+      <c r="P7" s="13">
+        <v>212</v>
+      </c>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="14">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="14">
+        <v>5</v>
+      </c>
+      <c r="E8" s="14">
+        <v>215</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M8" s="14">
+        <v>3</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="14">
+        <v>26</v>
+      </c>
+      <c r="P8" s="14">
+        <v>215</v>
+      </c>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="P11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="M13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="S13" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="U13" s="18"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="12">
+        <v>5</v>
+      </c>
+      <c r="E15" s="12">
+        <v>6</v>
+      </c>
+      <c r="F15" s="20">
+        <v>-9.0468130471643704E-5</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>219</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="M15" s="12">
+        <v>1</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="12">
+        <v>387</v>
+      </c>
+      <c r="P15" s="12">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="20">
+        <v>-2.32158715759434E-4</v>
+      </c>
+      <c r="R15" s="12">
+        <v>0</v>
+      </c>
+      <c r="S15" s="12">
+        <v>219</v>
+      </c>
+      <c r="T15" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="U15" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="13">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="13">
+        <v>5</v>
+      </c>
+      <c r="E16" s="13">
+        <v>9</v>
+      </c>
+      <c r="F16" s="21">
+        <v>3.9268142304482702E-5</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>219</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16" s="13">
+        <v>2</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="13">
+        <v>52</v>
+      </c>
+      <c r="P16" s="13">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="R16" s="13">
+        <v>0</v>
+      </c>
+      <c r="S16" s="13">
+        <v>219</v>
+      </c>
+      <c r="T16" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="U16" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="14">
+        <v>3</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="14">
+        <v>5</v>
+      </c>
+      <c r="E17" s="14">
+        <v>9</v>
+      </c>
+      <c r="F17" s="22">
+        <v>3.9268142304482702E-5</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>219</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" s="14">
+        <v>3</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" s="14">
+        <v>26</v>
+      </c>
+      <c r="P17" s="14">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>-8.9762727285502798E-4</v>
+      </c>
+      <c r="R17" s="14">
+        <v>0</v>
+      </c>
+      <c r="S17" s="14">
+        <v>219</v>
+      </c>
+      <c r="T17" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="U17" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="21" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="12">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="12">
+        <v>5</v>
+      </c>
+      <c r="E23" s="12">
+        <v>12</v>
+      </c>
+      <c r="F23" s="13">
+        <v>-2.32158715759434E-4</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <v>201</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="13">
+        <v>2</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="13">
+        <v>5</v>
+      </c>
+      <c r="E24" s="13">
+        <v>12</v>
+      </c>
+      <c r="F24" s="13">
+        <v>-2.32158715759434E-4</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <v>214</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="14">
+        <v>3</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="14">
+        <v>5</v>
+      </c>
+      <c r="E25" s="14">
+        <v>12</v>
+      </c>
+      <c r="F25" s="14">
+        <v>-2.32158715759434E-4</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14">
+        <v>228</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E27" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="12">
+        <v>1</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="12">
+        <v>5</v>
+      </c>
+      <c r="E31" s="12">
+        <v>11</v>
+      </c>
+      <c r="F31" s="13">
+        <v>-1.08785856492044E-3</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
+      <c r="H31" s="13">
+        <v>201</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="13">
+        <v>2</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="13">
+        <v>5</v>
+      </c>
+      <c r="E32" s="13">
+        <v>11</v>
+      </c>
+      <c r="F32" s="13">
+        <v>2.2784536995779E-4</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13">
+        <v>203</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="J32" s="24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="14">
+        <v>3</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="14">
+        <v>5</v>
+      </c>
+      <c r="E33" s="14">
+        <v>11</v>
+      </c>
+      <c r="F33" s="14">
+        <v>2.2784536995779E-4</v>
+      </c>
+      <c r="G33" s="14">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14">
+        <v>201</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E35" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="N35" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="12">
+        <v>1</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="12">
+        <v>5</v>
+      </c>
+      <c r="E39" s="12">
+        <v>10</v>
+      </c>
+      <c r="F39" s="13">
+        <v>-3.5325399718610901E-4</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0</v>
+      </c>
+      <c r="H39" s="13">
+        <v>201</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="13">
+        <v>2</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="13">
+        <v>5</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13">
+        <v>0</v>
+      </c>
+      <c r="H40" s="13">
+        <v>203</v>
+      </c>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" s="14">
+        <v>3</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="14">
+        <v>5</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14">
+        <v>0</v>
+      </c>
+      <c r="H41" s="14">
+        <v>201</v>
+      </c>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E43" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="12">
+        <v>1</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="12">
+        <v>5</v>
+      </c>
+      <c r="E47" s="12">
+        <v>1</v>
+      </c>
+      <c r="F47" s="20">
+        <v>9.7454843083770406</v>
+      </c>
+      <c r="G47" s="20">
+        <v>3.5762781180892399E-7</v>
+      </c>
+      <c r="H47" s="12">
+        <v>204</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="13">
+        <v>2</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="13">
+        <v>5</v>
+      </c>
+      <c r="E48" s="13">
+        <v>21</v>
+      </c>
+      <c r="F48" s="13">
+        <v>-5.6707927701404805E-4</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0</v>
+      </c>
+      <c r="H48" s="13">
+        <v>211</v>
+      </c>
+      <c r="I48" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="J48" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="14">
+        <v>3</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="14">
+        <v>5</v>
+      </c>
+      <c r="E49" s="14">
+        <v>34</v>
+      </c>
+      <c r="F49" s="14">
+        <v>-1.19058584218123E-4</v>
+      </c>
+      <c r="G49" s="14">
+        <v>0</v>
+      </c>
+      <c r="H49" s="14">
+        <v>212</v>
+      </c>
+      <c r="I49" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="J49" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E51" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="12">
+        <v>1</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="12">
+        <v>5</v>
+      </c>
+      <c r="E55" s="12">
+        <v>1</v>
+      </c>
+      <c r="F55" s="12">
+        <v>18.837944907498802</v>
+      </c>
+      <c r="G55" s="12">
+        <v>0</v>
+      </c>
+      <c r="H55" s="12">
+        <v>208</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="13">
+        <v>2</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="13">
+        <v>5</v>
+      </c>
+      <c r="E56" s="13">
+        <v>1</v>
+      </c>
+      <c r="F56" s="13">
+        <v>18.837944907498802</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0</v>
+      </c>
+      <c r="H56" s="13">
+        <v>208</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="14">
+        <v>3</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="14">
+        <v>5</v>
+      </c>
+      <c r="E57" s="14">
+        <v>1</v>
+      </c>
+      <c r="F57" s="14">
+        <v>18.837944907498802</v>
+      </c>
+      <c r="G57" s="14">
+        <v>0</v>
+      </c>
+      <c r="H57" s="14">
+        <v>219</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="K57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E59" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J61" s="8"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="12">
+        <v>1</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="12">
+        <v>5</v>
+      </c>
+      <c r="E63" s="12">
+        <v>1</v>
+      </c>
+      <c r="F63" s="12">
+        <v>37.675889814997603</v>
+      </c>
+      <c r="G63" s="12">
+        <v>0</v>
+      </c>
+      <c r="H63" s="12">
+        <v>220</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="13">
+        <v>2</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="13">
+        <v>5</v>
+      </c>
+      <c r="E64" s="13">
+        <v>1</v>
+      </c>
+      <c r="F64" s="14">
+        <v>13.7641459370625</v>
+      </c>
+      <c r="G64" s="13">
+        <v>0</v>
+      </c>
+      <c r="H64" s="13">
+        <v>212</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="14">
+        <v>3</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="14">
+        <v>5</v>
+      </c>
+      <c r="E65" s="14">
+        <v>1</v>
+      </c>
+      <c r="F65" s="14">
+        <v>13.7641459370625</v>
+      </c>
+      <c r="G65" s="14">
+        <v>0</v>
+      </c>
+      <c r="H65" s="14">
+        <v>211</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="91">
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Population Ablation Study.xlsx
+++ b/Population Ablation Study.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yuvi Code\Python\evol-rgap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yuvraj\Projects\evol-rgap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D1BD0E-A54C-41A6-BF58-C657DD691F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EDD306-1D85-4ED0-982E-20F59F7A8AAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F04C3125-E05F-49DE-B1EE-B1A9AB900C2D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="178">
   <si>
     <t>Population</t>
   </si>
@@ -553,6 +553,18 @@
   </si>
   <si>
     <t>0.98 | 65.87</t>
+  </si>
+  <si>
+    <t>0.96 | 100.79</t>
+  </si>
+  <si>
+    <t>0.97 | 67.17</t>
+  </si>
+  <si>
+    <t>0.96 | 77.36</t>
+  </si>
+  <si>
+    <t>0.97 | 59.94</t>
   </si>
 </sst>
 </file>
@@ -582,7 +594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -699,11 +711,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -712,21 +733,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -746,21 +752,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -787,6 +778,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1136,103 +1160,103 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="5" t="s">
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="4" t="s">
+      <c r="R3" s="20"/>
+      <c r="S3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4" t="s">
+      <c r="T3" s="19"/>
+      <c r="U3" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="V3" s="4"/>
+      <c r="V3" s="19"/>
     </row>
     <row r="4" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="5" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1649,101 +1673,101 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="E15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="5" t="s">
+      <c r="P15" s="19"/>
+      <c r="Q15" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="R15" s="5"/>
-      <c r="S15" s="4" t="s">
+      <c r="R15" s="20"/>
+      <c r="S15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4" t="s">
+      <c r="T15" s="19"/>
+      <c r="U15" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="V15" s="4"/>
+      <c r="V15" s="19"/>
     </row>
     <row r="16" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="5" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
     </row>
     <row r="17" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
       <c r="O17" s="1" t="s">
         <v>22</v>
       </c>
@@ -2160,101 +2184,101 @@
       </c>
     </row>
     <row r="26" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="E26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="O26" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="5" t="s">
+      <c r="P26" s="19"/>
+      <c r="Q26" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="R26" s="5"/>
-      <c r="S26" s="4" t="s">
+      <c r="R26" s="20"/>
+      <c r="S26" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4" t="s">
+      <c r="T26" s="19"/>
+      <c r="U26" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="V26" s="4"/>
+      <c r="V26" s="19"/>
     </row>
     <row r="27" spans="2:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="5" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="R27" s="5"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
     </row>
     <row r="28" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
       <c r="O28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2671,101 +2695,101 @@
       </c>
     </row>
     <row r="38" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="C38" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4" t="s">
+      <c r="E38" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="M38" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="N38" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O38" s="4" t="s">
+      <c r="O38" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="5" t="s">
+      <c r="P38" s="19"/>
+      <c r="Q38" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="R38" s="5"/>
-      <c r="S38" s="4" t="s">
+      <c r="R38" s="20"/>
+      <c r="S38" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4" t="s">
+      <c r="T38" s="19"/>
+      <c r="U38" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="V38" s="4"/>
+      <c r="V38" s="19"/>
     </row>
     <row r="39" spans="2:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="5" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="R39" s="5"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
       <c r="O40" s="1" t="s">
         <v>22</v>
       </c>
@@ -3183,42 +3207,23 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="U3:V4"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T4"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="O3:P4"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="S38:T39"/>
+    <mergeCell ref="S26:T27"/>
+    <mergeCell ref="U26:V27"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="U38:V39"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="N38:N40"/>
     <mergeCell ref="U15:V16"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="D15:D17"/>
@@ -3235,27 +3240,46 @@
     <mergeCell ref="L15:L17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
     <mergeCell ref="M26:M28"/>
     <mergeCell ref="N26:N28"/>
     <mergeCell ref="O26:P27"/>
-    <mergeCell ref="S26:T27"/>
-    <mergeCell ref="U26:V27"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="U38:V39"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="N38:N40"/>
     <mergeCell ref="O38:P39"/>
-    <mergeCell ref="S38:T39"/>
+    <mergeCell ref="U3:V4"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T4"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="O3:P4"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3266,7 +3290,7 @@
   <dimension ref="B2:U65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3280,6 +3304,8 @@
     <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -3292,80 +3318,80 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="P2" s="7" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="P2" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="8" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="M4" s="8" t="s">
+      <c r="J4" s="25"/>
+      <c r="M4" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="8" t="s">
+      <c r="N4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="8" t="s">
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="U4" s="8"/>
+      <c r="U4" s="25"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
       <c r="T5" s="2" t="s">
         <v>22</v>
       </c>
@@ -3374,42 +3400,48 @@
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12">
-        <v>5</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="D6" s="7">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7">
         <v>214.9</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="2" t="s">
         <v>144</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="12">
-        <v>1</v>
-      </c>
-      <c r="N6" s="12" t="s">
+      <c r="K6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="8">
         <v>387</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="7">
         <v>214.9</v>
       </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
       <c r="T6" s="2" t="s">
         <v>160</v>
       </c>
@@ -3418,42 +3450,42 @@
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="13">
+      <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="13">
-        <v>5</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="D7" s="8">
+        <v>5</v>
+      </c>
+      <c r="E7" s="8">
         <v>212</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="2" t="s">
         <v>146</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="8">
         <v>2</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="8">
         <v>52</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="8">
         <v>212</v>
       </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
       <c r="T7" s="2" t="s">
         <v>162</v>
       </c>
@@ -3462,42 +3494,42 @@
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
+      <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14">
-        <v>5</v>
-      </c>
-      <c r="E8" s="14">
+      <c r="D8" s="9">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9">
         <v>215</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="2" t="s">
         <v>148</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="9">
         <v>3</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="9">
         <v>26</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="9">
         <v>215</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
       <c r="T8" s="2" t="s">
         <v>164</v>
       </c>
@@ -3506,92 +3538,92 @@
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="P11" s="7" t="s">
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="P11" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="M13" s="15" t="s">
+      <c r="J13" s="23"/>
+      <c r="M13" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="N13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="15" t="s">
+      <c r="N13" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="15" t="s">
+      <c r="Q13" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="R13" s="15" t="s">
+      <c r="R13" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="S13" s="19" t="s">
+      <c r="S13" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="T13" s="17" t="s">
+      <c r="T13" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="U13" s="18"/>
+      <c r="U13" s="23"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
       <c r="T14" s="2" t="s">
         <v>22</v>
       </c>
@@ -3600,216 +3632,216 @@
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="12">
-        <v>5</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="D15" s="7">
+        <v>5</v>
+      </c>
+      <c r="E15" s="7">
         <v>6</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="10">
         <v>-9.0468130471643704E-5</v>
       </c>
-      <c r="G15" s="12">
-        <v>0</v>
-      </c>
-      <c r="H15" s="12">
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
         <v>219</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="M15" s="12">
-        <v>1</v>
-      </c>
-      <c r="N15" s="13" t="s">
+      <c r="M15" s="7">
+        <v>1</v>
+      </c>
+      <c r="N15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="7">
         <v>387</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="7">
         <v>12</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15" s="10">
         <v>-2.32158715759434E-4</v>
       </c>
-      <c r="R15" s="12">
-        <v>0</v>
-      </c>
-      <c r="S15" s="12">
+      <c r="R15" s="7">
+        <v>0</v>
+      </c>
+      <c r="S15" s="7">
         <v>219</v>
       </c>
-      <c r="T15" s="28" t="s">
+      <c r="T15" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="U15" s="23" t="s">
+      <c r="U15" s="13" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="13">
+      <c r="B16" s="8">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="13">
-        <v>5</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="D16" s="8">
+        <v>5</v>
+      </c>
+      <c r="E16" s="8">
         <v>9</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="11">
         <v>3.9268142304482702E-5</v>
       </c>
-      <c r="G16" s="13">
-        <v>0</v>
-      </c>
-      <c r="H16" s="13">
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
         <v>219</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="8">
         <v>2</v>
       </c>
-      <c r="N16" s="13" t="s">
+      <c r="N16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="8">
         <v>52</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="8">
         <v>12</v>
       </c>
-      <c r="Q16" s="21" t="s">
+      <c r="Q16" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="R16" s="13">
-        <v>0</v>
-      </c>
-      <c r="S16" s="13">
+      <c r="R16" s="8">
+        <v>0</v>
+      </c>
+      <c r="S16" s="8">
         <v>219</v>
       </c>
-      <c r="T16" s="26" t="s">
+      <c r="T16" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="U16" s="24" t="s">
+      <c r="U16" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="14">
+      <c r="B17" s="9">
         <v>3</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="14">
-        <v>5</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="D17" s="9">
+        <v>5</v>
+      </c>
+      <c r="E17" s="9">
         <v>9</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="12">
         <v>3.9268142304482702E-5</v>
       </c>
-      <c r="G17" s="14">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14">
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
         <v>219</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="9">
         <v>3</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="N17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="9">
         <v>26</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="9">
         <v>11</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="Q17" s="12">
         <v>-8.9762727285502798E-4</v>
       </c>
-      <c r="R17" s="14">
-        <v>0</v>
-      </c>
-      <c r="S17" s="14">
+      <c r="R17" s="9">
+        <v>0</v>
+      </c>
+      <c r="S17" s="9">
         <v>219</v>
       </c>
-      <c r="T17" s="27" t="s">
+      <c r="T17" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="U17" s="25" t="s">
+      <c r="U17" s="15" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="21" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="J21" s="8"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="16"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="27"/>
       <c r="I22" s="2" t="s">
         <v>22</v>
       </c>
@@ -3818,135 +3850,141 @@
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="12">
-        <v>1</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="12">
-        <v>5</v>
-      </c>
-      <c r="E23" s="12">
+      <c r="D23" s="7">
+        <v>5</v>
+      </c>
+      <c r="E23" s="7">
         <v>12</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="8">
         <v>-2.32158715759434E-4</v>
       </c>
-      <c r="G23" s="12">
-        <v>0</v>
-      </c>
-      <c r="H23" s="12">
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
         <v>201</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="16" t="s">
         <v>121</v>
       </c>
+      <c r="K23" t="s">
+        <v>175</v>
+      </c>
+      <c r="L23" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="13">
+      <c r="B24" s="8">
         <v>2</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="13">
-        <v>5</v>
-      </c>
-      <c r="E24" s="13">
+      <c r="D24" s="8">
+        <v>5</v>
+      </c>
+      <c r="E24" s="8">
         <v>12</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="8">
         <v>-2.32158715759434E-4</v>
       </c>
-      <c r="G24" s="13">
-        <v>0</v>
-      </c>
-      <c r="H24" s="13">
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
         <v>214</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="14">
+      <c r="B25" s="9">
         <v>3</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="14">
-        <v>5</v>
-      </c>
-      <c r="E25" s="14">
+      <c r="D25" s="9">
+        <v>5</v>
+      </c>
+      <c r="E25" s="9">
         <v>12</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="9">
         <v>-2.32158715759434E-4</v>
       </c>
-      <c r="G25" s="14">
-        <v>0</v>
-      </c>
-      <c r="H25" s="14">
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
         <v>228</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="17" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="C29" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="J29" s="8"/>
+      <c r="J29" s="25"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="16"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="27"/>
       <c r="I30" s="2" t="s">
         <v>22</v>
       </c>
@@ -3955,141 +3993,141 @@
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="12">
-        <v>1</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="12">
-        <v>5</v>
-      </c>
-      <c r="E31" s="12">
+      <c r="D31" s="7">
+        <v>5</v>
+      </c>
+      <c r="E31" s="7">
         <v>11</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="8">
         <v>-1.08785856492044E-3</v>
       </c>
-      <c r="G31" s="12">
-        <v>0</v>
-      </c>
-      <c r="H31" s="13">
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8">
         <v>201</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="J31" s="16" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="13">
+      <c r="B32" s="8">
         <v>2</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="13">
-        <v>5</v>
-      </c>
-      <c r="E32" s="13">
+      <c r="D32" s="8">
+        <v>5</v>
+      </c>
+      <c r="E32" s="8">
         <v>11</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="8">
         <v>2.2784536995779E-4</v>
       </c>
-      <c r="G32" s="13">
-        <v>0</v>
-      </c>
-      <c r="H32" s="13">
+      <c r="G32" s="8">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
         <v>203</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="I32" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="J32" s="24" t="s">
+      <c r="J32" s="14" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="14">
+      <c r="B33" s="9">
         <v>3</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="14">
-        <v>5</v>
-      </c>
-      <c r="E33" s="14">
+      <c r="D33" s="9">
+        <v>5</v>
+      </c>
+      <c r="E33" s="9">
         <v>11</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="9">
         <v>2.2784536995779E-4</v>
       </c>
-      <c r="G33" s="14">
-        <v>0</v>
-      </c>
-      <c r="H33" s="14">
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
         <v>201</v>
       </c>
-      <c r="I33" s="25" t="s">
+      <c r="I33" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="J33" s="27" t="s">
+      <c r="J33" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="N35" s="7" t="s">
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="N35" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="8" t="s">
+      <c r="C37" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="H37" s="19" t="s">
+      <c r="H37" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="J37" s="8"/>
+      <c r="J37" s="25"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="16"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="27"/>
       <c r="I38" s="2" t="s">
         <v>22</v>
       </c>
@@ -4098,117 +4136,117 @@
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B39" s="12">
-        <v>1</v>
-      </c>
-      <c r="C39" s="12" t="s">
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="12">
-        <v>5</v>
-      </c>
-      <c r="E39" s="12">
+      <c r="D39" s="7">
+        <v>5</v>
+      </c>
+      <c r="E39" s="7">
         <v>10</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="8">
         <v>-3.5325399718610901E-4</v>
       </c>
-      <c r="G39" s="12">
-        <v>0</v>
-      </c>
-      <c r="H39" s="13">
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8">
         <v>201</v>
       </c>
-      <c r="I39" s="28" t="s">
+      <c r="I39" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="J39" s="26"/>
+      <c r="J39" s="16"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B40" s="13">
+      <c r="B40" s="8">
         <v>2</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="13">
-        <v>5</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13">
-        <v>0</v>
-      </c>
-      <c r="H40" s="13">
+      <c r="D40" s="8">
+        <v>5</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8">
         <v>203</v>
       </c>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41" s="14">
+      <c r="B41" s="9">
         <v>3</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="14">
-        <v>5</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14">
-        <v>0</v>
-      </c>
-      <c r="H41" s="14">
+      <c r="D41" s="9">
+        <v>5</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="9">
         <v>201</v>
       </c>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="C45" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="H45" s="19" t="s">
+      <c r="H45" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="I45" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="J45" s="8"/>
+      <c r="J45" s="25"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="16"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="27"/>
       <c r="I46" s="2" t="s">
         <v>22</v>
       </c>
@@ -4217,135 +4255,135 @@
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B47" s="12">
-        <v>1</v>
-      </c>
-      <c r="C47" s="12" t="s">
+      <c r="B47" s="7">
+        <v>1</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="12">
-        <v>5</v>
-      </c>
-      <c r="E47" s="12">
-        <v>1</v>
-      </c>
-      <c r="F47" s="20">
+      <c r="D47" s="7">
+        <v>5</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1</v>
+      </c>
+      <c r="F47" s="10">
         <v>9.7454843083770406</v>
       </c>
-      <c r="G47" s="20">
+      <c r="G47" s="10">
         <v>3.5762781180892399E-7</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="7">
         <v>204</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="J47" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="13">
+      <c r="B48" s="8">
         <v>2</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="13">
-        <v>5</v>
-      </c>
-      <c r="E48" s="13">
+      <c r="D48" s="8">
+        <v>5</v>
+      </c>
+      <c r="E48" s="8">
         <v>21</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="8">
         <v>-5.6707927701404805E-4</v>
       </c>
-      <c r="G48" s="13">
-        <v>0</v>
-      </c>
-      <c r="H48" s="13">
+      <c r="G48" s="8">
+        <v>0</v>
+      </c>
+      <c r="H48" s="8">
         <v>211</v>
       </c>
-      <c r="I48" s="26" t="s">
+      <c r="I48" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="J48" s="24" t="s">
+      <c r="J48" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="14">
+      <c r="B49" s="9">
         <v>3</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="14">
-        <v>5</v>
-      </c>
-      <c r="E49" s="14">
+      <c r="D49" s="9">
+        <v>5</v>
+      </c>
+      <c r="E49" s="9">
         <v>34</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="9">
         <v>-1.19058584218123E-4</v>
       </c>
-      <c r="G49" s="14">
-        <v>0</v>
-      </c>
-      <c r="H49" s="14">
+      <c r="G49" s="9">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
         <v>212</v>
       </c>
-      <c r="I49" s="25" t="s">
+      <c r="I49" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="J49" s="25" t="s">
+      <c r="J49" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="8" t="s">
+      <c r="C53" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="H53" s="19" t="s">
+      <c r="H53" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="I53" s="8" t="s">
+      <c r="I53" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="J53" s="8"/>
+      <c r="J53" s="25"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="16"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="27"/>
       <c r="I54" s="2" t="s">
         <v>22</v>
       </c>
@@ -4354,31 +4392,31 @@
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="12">
-        <v>1</v>
-      </c>
-      <c r="C55" s="12" t="s">
+      <c r="B55" s="7">
+        <v>1</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="12">
-        <v>5</v>
-      </c>
-      <c r="E55" s="12">
-        <v>1</v>
-      </c>
-      <c r="F55" s="12">
+      <c r="D55" s="7">
+        <v>5</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1</v>
+      </c>
+      <c r="F55" s="7">
         <v>18.837944907498802</v>
       </c>
-      <c r="G55" s="12">
-        <v>0</v>
-      </c>
-      <c r="H55" s="12">
+      <c r="G55" s="7">
+        <v>0</v>
+      </c>
+      <c r="H55" s="7">
         <v>208</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="I55" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="J55" s="9" t="s">
+      <c r="J55" s="4" t="s">
         <v>133</v>
       </c>
       <c r="K55" t="s">
@@ -4386,31 +4424,31 @@
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="13">
+      <c r="B56" s="8">
         <v>2</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="13">
-        <v>5</v>
-      </c>
-      <c r="E56" s="13">
-        <v>1</v>
-      </c>
-      <c r="F56" s="13">
+      <c r="D56" s="8">
+        <v>5</v>
+      </c>
+      <c r="E56" s="8">
+        <v>1</v>
+      </c>
+      <c r="F56" s="8">
         <v>18.837944907498802</v>
       </c>
-      <c r="G56" s="13">
-        <v>0</v>
-      </c>
-      <c r="H56" s="13">
+      <c r="G56" s="8">
+        <v>0</v>
+      </c>
+      <c r="H56" s="8">
         <v>208</v>
       </c>
-      <c r="I56" s="9" t="s">
+      <c r="I56" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="J56" s="9" t="s">
+      <c r="J56" s="4" t="s">
         <v>135</v>
       </c>
       <c r="K56" t="s">
@@ -4418,31 +4456,31 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="14">
+      <c r="B57" s="9">
         <v>3</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="14">
-        <v>5</v>
-      </c>
-      <c r="E57" s="14">
-        <v>1</v>
-      </c>
-      <c r="F57" s="14">
+      <c r="D57" s="9">
+        <v>5</v>
+      </c>
+      <c r="E57" s="9">
+        <v>1</v>
+      </c>
+      <c r="F57" s="9">
         <v>18.837944907498802</v>
       </c>
-      <c r="G57" s="14">
-        <v>0</v>
-      </c>
-      <c r="H57" s="14">
+      <c r="G57" s="9">
+        <v>0</v>
+      </c>
+      <c r="H57" s="9">
         <v>219</v>
       </c>
-      <c r="I57" s="10" t="s">
+      <c r="I57" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J57" s="10" t="s">
+      <c r="J57" s="5" t="s">
         <v>137</v>
       </c>
       <c r="K57" t="s">
@@ -4450,48 +4488,48 @@
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="8" t="s">
+      <c r="C61" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="H61" s="19" t="s">
+      <c r="H61" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="I61" s="8" t="s">
+      <c r="I61" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="J61" s="8"/>
+      <c r="J61" s="25"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="16"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="27"/>
       <c r="I62" s="2" t="s">
         <v>22</v>
       </c>
@@ -4500,31 +4538,31 @@
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="12">
-        <v>1</v>
-      </c>
-      <c r="C63" s="12" t="s">
+      <c r="B63" s="7">
+        <v>1</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="12">
-        <v>5</v>
-      </c>
-      <c r="E63" s="12">
-        <v>1</v>
-      </c>
-      <c r="F63" s="12">
+      <c r="D63" s="7">
+        <v>5</v>
+      </c>
+      <c r="E63" s="7">
+        <v>1</v>
+      </c>
+      <c r="F63" s="7">
         <v>37.675889814997603</v>
       </c>
-      <c r="G63" s="12">
-        <v>0</v>
-      </c>
-      <c r="H63" s="12">
+      <c r="G63" s="7">
+        <v>0</v>
+      </c>
+      <c r="H63" s="7">
         <v>220</v>
       </c>
-      <c r="I63" s="11" t="s">
+      <c r="I63" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="J63" s="9" t="s">
+      <c r="J63" s="4" t="s">
         <v>139</v>
       </c>
       <c r="K63" t="s">
@@ -4532,31 +4570,31 @@
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="13">
+      <c r="B64" s="8">
         <v>2</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="13">
-        <v>5</v>
-      </c>
-      <c r="E64" s="13">
-        <v>1</v>
-      </c>
-      <c r="F64" s="14">
+      <c r="D64" s="8">
+        <v>5</v>
+      </c>
+      <c r="E64" s="8">
+        <v>1</v>
+      </c>
+      <c r="F64" s="9">
         <v>13.7641459370625</v>
       </c>
-      <c r="G64" s="13">
-        <v>0</v>
-      </c>
-      <c r="H64" s="13">
+      <c r="G64" s="8">
+        <v>0</v>
+      </c>
+      <c r="H64" s="8">
         <v>212</v>
       </c>
-      <c r="I64" s="9" t="s">
+      <c r="I64" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="J64" s="9" t="s">
+      <c r="J64" s="4" t="s">
         <v>141</v>
       </c>
       <c r="K64" t="s">
@@ -4564,31 +4602,31 @@
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="14">
+      <c r="B65" s="9">
         <v>3</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="14">
-        <v>5</v>
-      </c>
-      <c r="E65" s="14">
-        <v>1</v>
-      </c>
-      <c r="F65" s="14">
+      <c r="D65" s="9">
+        <v>5</v>
+      </c>
+      <c r="E65" s="9">
+        <v>1</v>
+      </c>
+      <c r="F65" s="9">
         <v>13.7641459370625</v>
       </c>
-      <c r="G65" s="14">
-        <v>0</v>
-      </c>
-      <c r="H65" s="14">
+      <c r="G65" s="9">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9">
         <v>211</v>
       </c>
-      <c r="I65" s="10" t="s">
+      <c r="I65" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="J65" s="10" t="s">
+      <c r="J65" s="5" t="s">
         <v>143</v>
       </c>
       <c r="K65" t="s">
@@ -4597,79 +4635,8 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="E11:H11"/>
@@ -4686,8 +4653,79 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
